--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -741,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
-        <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>-11700</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>-11100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
-        <v>1800</v>
+        <v>7100</v>
       </c>
       <c r="F17" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="3">
-        <v>-10600</v>
+        <v>2300</v>
       </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2300</v>
       </c>
       <c r="H18" s="3">
-        <v>-3100</v>
+        <v>-1100</v>
       </c>
       <c r="I18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-700</v>
       </c>
       <c r="H20" s="3">
-        <v>1400</v>
+        <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1700</v>
+        <v>-1400</v>
       </c>
       <c r="I21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1400</v>
+        <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>60000</v>
+        <v>54700</v>
       </c>
       <c r="E41" s="3">
-        <v>57300</v>
+        <v>59200</v>
       </c>
       <c r="F41" s="3">
-        <v>44800</v>
+        <v>76500</v>
       </c>
       <c r="G41" s="3">
-        <v>40600</v>
+        <v>73000</v>
       </c>
       <c r="H41" s="3">
-        <v>39100</v>
+        <v>57000</v>
       </c>
       <c r="I41" s="3">
+        <v>89800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K41" s="3">
         <v>33600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>29400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1571,28 +1751,34 @@
         <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>6200</v>
+        <v>200</v>
       </c>
       <c r="F42" s="3">
-        <v>12600</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3">
-        <v>20600</v>
+        <v>7900</v>
       </c>
       <c r="H42" s="3">
-        <v>2000</v>
+        <v>16100</v>
       </c>
       <c r="I42" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K42" s="3">
         <v>8700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,28 +1786,34 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1841,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61000</v>
+        <v>55800</v>
       </c>
       <c r="E46" s="3">
-        <v>64300</v>
+        <v>60400</v>
       </c>
       <c r="F46" s="3">
-        <v>70900</v>
+        <v>77700</v>
       </c>
       <c r="G46" s="3">
-        <v>73800</v>
+        <v>81900</v>
       </c>
       <c r="H46" s="3">
-        <v>41700</v>
+        <v>90300</v>
       </c>
       <c r="I46" s="3">
+        <v>68900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K46" s="3">
         <v>42900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>38900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1716,57 +1926,69 @@
         <v>3700</v>
       </c>
       <c r="E47" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F47" s="3">
-        <v>9200</v>
+        <v>4700</v>
       </c>
       <c r="G47" s="3">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="H47" s="3">
-        <v>7800</v>
+        <v>11700</v>
       </c>
       <c r="I47" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K47" s="3">
         <v>8800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>94600</v>
+        <v>101000</v>
       </c>
       <c r="E48" s="3">
-        <v>94000</v>
+        <v>97600</v>
       </c>
       <c r="F48" s="3">
-        <v>96500</v>
+        <v>120500</v>
       </c>
       <c r="G48" s="3">
-        <v>96600</v>
+        <v>119700</v>
       </c>
       <c r="H48" s="3">
-        <v>98500</v>
+        <v>122900</v>
       </c>
       <c r="I48" s="3">
+        <v>90300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K48" s="3">
         <v>88000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>83700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,25 +2086,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159300</v>
+        <v>160600</v>
       </c>
       <c r="E54" s="3">
-        <v>162000</v>
+        <v>161500</v>
       </c>
       <c r="F54" s="3">
-        <v>176600</v>
+        <v>202900</v>
       </c>
       <c r="G54" s="3">
-        <v>178800</v>
+        <v>206300</v>
       </c>
       <c r="H54" s="3">
-        <v>148000</v>
+        <v>225000</v>
       </c>
       <c r="I54" s="3">
+        <v>167100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K54" s="3">
         <v>139600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>127100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H57" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
       </c>
       <c r="J57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2291,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2035,10 +2309,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -2047,42 +2321,54 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="G60" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H60" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
       </c>
       <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2137,10 +2429,16 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G66" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36000</v>
+        <v>-50000</v>
       </c>
       <c r="E72" s="3">
-        <v>-34400</v>
+        <v>-47800</v>
       </c>
       <c r="F72" s="3">
-        <v>-22700</v>
+        <v>-45900</v>
       </c>
       <c r="G72" s="3">
-        <v>-21300</v>
+        <v>-43800</v>
       </c>
       <c r="H72" s="3">
-        <v>-31800</v>
+        <v>-28900</v>
       </c>
       <c r="I72" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-31300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>158300</v>
+        <v>157800</v>
       </c>
       <c r="E76" s="3">
-        <v>160500</v>
+        <v>160200</v>
       </c>
       <c r="F76" s="3">
-        <v>174600</v>
+        <v>201700</v>
       </c>
       <c r="G76" s="3">
-        <v>176800</v>
+        <v>204500</v>
       </c>
       <c r="H76" s="3">
-        <v>146000</v>
+        <v>222400</v>
       </c>
       <c r="I76" s="3">
+        <v>165300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K76" s="3">
         <v>137900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>124500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4600</v>
+        <v>-4000</v>
       </c>
       <c r="E94" s="3">
-        <v>10400</v>
+        <v>22400</v>
       </c>
       <c r="F94" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G94" s="3">
-        <v>-20200</v>
+        <v>13200</v>
       </c>
       <c r="H94" s="3">
-        <v>4500</v>
+        <v>7900</v>
       </c>
       <c r="I94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>300</v>
-      </c>
       <c r="G100" s="3">
-        <v>23300</v>
+        <v>500</v>
       </c>
       <c r="H100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>700</v>
+      </c>
+      <c r="K100" s="3">
         <v>15900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>-700</v>
+        <v>2600</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2800</v>
+        <v>-4500</v>
       </c>
       <c r="E102" s="3">
-        <v>12500</v>
+        <v>21200</v>
       </c>
       <c r="F102" s="3">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="G102" s="3">
-        <v>1600</v>
+        <v>15900</v>
       </c>
       <c r="H102" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I102" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K102" s="3">
         <v>4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
-        <v>400</v>
-      </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,19 +926,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -930,35 +949,38 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-11100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
-        <v>2300</v>
-      </c>
       <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1065,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,34 +1119,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,34 +1157,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1575,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>700</v>
-      </c>
       <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1757,28 +1846,31 @@
         <v>200</v>
       </c>
       <c r="G42" s="3">
+        <v>200</v>
+      </c>
+      <c r="H42" s="3">
         <v>7900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1789,31 +1881,34 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,148 +1942,163 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E46" s="3">
         <v>55800</v>
       </c>
-      <c r="E46" s="3">
-        <v>60400</v>
-      </c>
       <c r="F46" s="3">
+        <v>60500</v>
+      </c>
+      <c r="G46" s="3">
         <v>77700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81900</v>
       </c>
-      <c r="H46" s="3">
-        <v>90300</v>
-      </c>
       <c r="I46" s="3">
-        <v>68900</v>
+        <v>90400</v>
       </c>
       <c r="J46" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K46" s="3">
         <v>53100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4700</v>
       </c>
       <c r="G47" s="3">
         <v>4700</v>
       </c>
       <c r="H47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I47" s="3">
         <v>11700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101000</v>
+        <v>104500</v>
       </c>
       <c r="E48" s="3">
-        <v>97600</v>
+        <v>101100</v>
       </c>
       <c r="F48" s="3">
+        <v>97700</v>
+      </c>
+      <c r="G48" s="3">
         <v>120500</v>
       </c>
-      <c r="G48" s="3">
-        <v>119700</v>
-      </c>
       <c r="H48" s="3">
+        <v>119800</v>
+      </c>
+      <c r="I48" s="3">
         <v>122900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>90300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>125400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>88000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>83700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,19 +2208,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2112,8 +2231,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160600</v>
+        <v>160000</v>
       </c>
       <c r="E54" s="3">
-        <v>161500</v>
+        <v>160700</v>
       </c>
       <c r="F54" s="3">
-        <v>202900</v>
+        <v>161600</v>
       </c>
       <c r="G54" s="3">
-        <v>206300</v>
+        <v>203000</v>
       </c>
       <c r="H54" s="3">
+        <v>206400</v>
+      </c>
+      <c r="I54" s="3">
         <v>225000</v>
       </c>
-      <c r="I54" s="3">
-        <v>167100</v>
-      </c>
       <c r="J54" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K54" s="3">
         <v>188500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,34 +2366,37 @@
         <v>2700</v>
       </c>
       <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2430,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2315,60 +2451,66 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,10 +2580,13 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-30300</v>
       </c>
-      <c r="J72" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-31300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>157800</v>
+        <v>157300</v>
       </c>
       <c r="E76" s="3">
+        <v>157900</v>
+      </c>
+      <c r="F76" s="3">
         <v>160200</v>
       </c>
-      <c r="F76" s="3">
-        <v>201700</v>
-      </c>
       <c r="G76" s="3">
+        <v>201800</v>
+      </c>
+      <c r="H76" s="3">
         <v>204500</v>
       </c>
-      <c r="H76" s="3">
-        <v>222400</v>
-      </c>
       <c r="I76" s="3">
+        <v>222500</v>
+      </c>
+      <c r="J76" s="3">
         <v>165300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>186000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>137900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3229,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-2000</v>
+        <v>-3500</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3511,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3313,22 +3533,25 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>50900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
-        <v>15900</v>
-      </c>
       <c r="H102" s="3">
-        <v>5200</v>
+        <v>16000</v>
       </c>
       <c r="I102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J102" s="3">
         <v>16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>1000</v>
-      </c>
       <c r="G12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,11 +960,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -952,11 +972,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-11100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -964,11 +984,14 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,14 +999,14 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
-        <v>7100</v>
-      </c>
       <c r="G17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
-        <v>1700</v>
-      </c>
       <c r="I17" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>-6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-7100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I18" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="J18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K18" s="3">
         <v>6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,37 +1153,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-200</v>
-      </c>
       <c r="H20" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1194,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F21" s="3">
-        <v>-8300</v>
+        <v>-1800</v>
       </c>
       <c r="G21" s="3">
-        <v>-2700</v>
+        <v>-8500</v>
       </c>
       <c r="H21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G23" s="3">
-        <v>-2700</v>
+        <v>-8600</v>
       </c>
       <c r="H23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G26" s="3">
-        <v>-2700</v>
+        <v>-8600</v>
       </c>
       <c r="H26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G27" s="3">
-        <v>-2700</v>
+        <v>-8600</v>
       </c>
       <c r="H27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1645,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>200</v>
-      </c>
       <c r="H32" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>600</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G33" s="3">
-        <v>-2700</v>
+        <v>-8600</v>
       </c>
       <c r="H33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G35" s="3">
-        <v>-2700</v>
+        <v>-8600</v>
       </c>
       <c r="H35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,51 +1879,55 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49400</v>
+        <v>46700</v>
       </c>
       <c r="E41" s="3">
-        <v>54700</v>
+        <v>50600</v>
       </c>
       <c r="F41" s="3">
-        <v>59200</v>
+        <v>56000</v>
       </c>
       <c r="G41" s="3">
-        <v>76500</v>
+        <v>60600</v>
       </c>
       <c r="H41" s="3">
-        <v>73000</v>
+        <v>78300</v>
       </c>
       <c r="I41" s="3">
-        <v>57000</v>
+        <v>74700</v>
       </c>
       <c r="J41" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K41" s="3">
         <v>89800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
@@ -1849,66 +1939,72 @@
         <v>200</v>
       </c>
       <c r="H42" s="3">
-        <v>7900</v>
+        <v>200</v>
       </c>
       <c r="I42" s="3">
-        <v>16100</v>
+        <v>8100</v>
       </c>
       <c r="J42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K42" s="3">
         <v>19300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,160 +2041,175 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
-        <v>16700</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K45" s="3">
         <v>11300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51300</v>
+        <v>48400</v>
       </c>
       <c r="E46" s="3">
-        <v>55800</v>
+        <v>52500</v>
       </c>
       <c r="F46" s="3">
-        <v>60500</v>
+        <v>57200</v>
       </c>
       <c r="G46" s="3">
-        <v>77700</v>
+        <v>61900</v>
       </c>
       <c r="H46" s="3">
-        <v>81900</v>
+        <v>79600</v>
       </c>
       <c r="I46" s="3">
-        <v>90400</v>
+        <v>83900</v>
       </c>
       <c r="J46" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K46" s="3">
         <v>69000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="E47" s="3">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
-        <v>4700</v>
-      </c>
       <c r="H47" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I47" s="3">
-        <v>11700</v>
+        <v>4800</v>
       </c>
       <c r="J47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104500</v>
+        <v>110300</v>
       </c>
       <c r="E48" s="3">
-        <v>101100</v>
+        <v>107000</v>
       </c>
       <c r="F48" s="3">
-        <v>97700</v>
+        <v>103500</v>
       </c>
       <c r="G48" s="3">
-        <v>120500</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="3">
-        <v>119800</v>
+        <v>123400</v>
       </c>
       <c r="I48" s="3">
-        <v>122900</v>
+        <v>122600</v>
       </c>
       <c r="J48" s="3">
+        <v>125800</v>
+      </c>
+      <c r="K48" s="3">
         <v>90300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>88000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>83700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,28 +2328,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160000</v>
+        <v>163400</v>
       </c>
       <c r="E54" s="3">
-        <v>160700</v>
+        <v>163800</v>
       </c>
       <c r="F54" s="3">
-        <v>161600</v>
+        <v>164500</v>
       </c>
       <c r="G54" s="3">
-        <v>203000</v>
+        <v>165400</v>
       </c>
       <c r="H54" s="3">
-        <v>206400</v>
+        <v>207800</v>
       </c>
       <c r="I54" s="3">
-        <v>225000</v>
+        <v>211300</v>
       </c>
       <c r="J54" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K54" s="3">
         <v>167200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>188500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>139600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
         <v>2700</v>
       </c>
       <c r="F57" s="3">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2454,63 +2591,69 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="E60" s="3">
         <v>2800</v>
       </c>
       <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2583,10 +2729,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E66" s="3">
         <v>2800</v>
       </c>
       <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
-        <v>1200</v>
-      </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52300</v>
+        <v>-56100</v>
       </c>
       <c r="E72" s="3">
-        <v>-50000</v>
+        <v>-53500</v>
       </c>
       <c r="F72" s="3">
-        <v>-47800</v>
+        <v>-51200</v>
       </c>
       <c r="G72" s="3">
-        <v>-45900</v>
+        <v>-49000</v>
       </c>
       <c r="H72" s="3">
-        <v>-43800</v>
+        <v>-47000</v>
       </c>
       <c r="I72" s="3">
-        <v>-28900</v>
+        <v>-44900</v>
       </c>
       <c r="J72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-30400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>157300</v>
+        <v>160300</v>
       </c>
       <c r="E76" s="3">
-        <v>157900</v>
+        <v>161000</v>
       </c>
       <c r="F76" s="3">
-        <v>160200</v>
+        <v>161600</v>
       </c>
       <c r="G76" s="3">
-        <v>201800</v>
+        <v>164000</v>
       </c>
       <c r="H76" s="3">
-        <v>204500</v>
+        <v>206500</v>
       </c>
       <c r="I76" s="3">
-        <v>222500</v>
+        <v>209400</v>
       </c>
       <c r="J76" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K76" s="3">
         <v>165300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>186000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>137900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>124500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G81" s="3">
-        <v>-2700</v>
+        <v>-8600</v>
       </c>
       <c r="H81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,14 +3438,14 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-3500</v>
+        <v>-6000</v>
       </c>
       <c r="H89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3536,22 +3757,25 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3635,37 +3865,40 @@
         <v>-3700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="F94" s="3">
-        <v>22400</v>
+        <v>-4100</v>
       </c>
       <c r="G94" s="3">
-        <v>5800</v>
+        <v>23000</v>
       </c>
       <c r="H94" s="3">
-        <v>13200</v>
+        <v>5900</v>
       </c>
       <c r="I94" s="3">
-        <v>7900</v>
+        <v>13600</v>
       </c>
       <c r="J94" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>50900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>3200</v>
-      </c>
       <c r="G101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>2600</v>
-      </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
+        <v>900</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5300</v>
+        <v>-3900</v>
       </c>
       <c r="E102" s="3">
-        <v>-4500</v>
+        <v>-5400</v>
       </c>
       <c r="F102" s="3">
-        <v>21200</v>
+        <v>-4600</v>
       </c>
       <c r="G102" s="3">
-        <v>3500</v>
+        <v>21700</v>
       </c>
       <c r="H102" s="3">
-        <v>16000</v>
+        <v>3600</v>
       </c>
       <c r="I102" s="3">
-        <v>5300</v>
+        <v>16300</v>
       </c>
       <c r="J102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K102" s="3">
         <v>16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,11 +983,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -975,23 +995,26 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-11100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,14 +1025,14 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
-        <v>1800</v>
-      </c>
       <c r="J17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1800</v>
-      </c>
       <c r="J18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1187,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>-600</v>
-      </c>
       <c r="J20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1231,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-8500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>600</v>
-      </c>
       <c r="J32" s="3">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,57 +1966,61 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46700</v>
+        <v>37900</v>
       </c>
       <c r="E41" s="3">
-        <v>50600</v>
+        <v>46300</v>
       </c>
       <c r="F41" s="3">
-        <v>56000</v>
+        <v>50100</v>
       </c>
       <c r="G41" s="3">
-        <v>60600</v>
+        <v>55500</v>
       </c>
       <c r="H41" s="3">
-        <v>78300</v>
+        <v>60000</v>
       </c>
       <c r="I41" s="3">
-        <v>74700</v>
+        <v>77600</v>
       </c>
       <c r="J41" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K41" s="3">
         <v>58400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>89800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
-      </c>
-      <c r="E42" s="3">
-        <v>200</v>
       </c>
       <c r="F42" s="3">
         <v>200</v>
@@ -1942,69 +2032,75 @@
         <v>200</v>
       </c>
       <c r="I42" s="3">
-        <v>8100</v>
+        <v>200</v>
       </c>
       <c r="J42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K42" s="3">
         <v>16500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,195 +2140,210 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>17100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48400</v>
+        <v>42900</v>
       </c>
       <c r="E46" s="3">
-        <v>52500</v>
+        <v>47900</v>
       </c>
       <c r="F46" s="3">
-        <v>57200</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="3">
-        <v>61900</v>
+        <v>56600</v>
       </c>
       <c r="H46" s="3">
-        <v>79600</v>
+        <v>61300</v>
       </c>
       <c r="I46" s="3">
-        <v>83900</v>
+        <v>78800</v>
       </c>
       <c r="J46" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K46" s="3">
         <v>92500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>69000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E47" s="3">
         <v>4700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4800</v>
       </c>
       <c r="I47" s="3">
         <v>4800</v>
       </c>
       <c r="J47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K47" s="3">
         <v>12000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110300</v>
+        <v>111900</v>
       </c>
       <c r="E48" s="3">
-        <v>107000</v>
+        <v>109300</v>
       </c>
       <c r="F48" s="3">
-        <v>103500</v>
+        <v>106000</v>
       </c>
       <c r="G48" s="3">
-        <v>100000</v>
+        <v>102500</v>
       </c>
       <c r="H48" s="3">
-        <v>123400</v>
+        <v>99100</v>
       </c>
       <c r="I48" s="3">
-        <v>122600</v>
+        <v>122200</v>
       </c>
       <c r="J48" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K48" s="3">
         <v>125800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>90300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>88000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>83700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>163400</v>
+        <v>160400</v>
       </c>
       <c r="E54" s="3">
-        <v>163800</v>
+        <v>161900</v>
       </c>
       <c r="F54" s="3">
-        <v>164500</v>
+        <v>162300</v>
       </c>
       <c r="G54" s="3">
-        <v>165400</v>
+        <v>162900</v>
       </c>
       <c r="H54" s="3">
-        <v>207800</v>
+        <v>163900</v>
       </c>
       <c r="I54" s="3">
-        <v>211300</v>
+        <v>205900</v>
       </c>
       <c r="J54" s="3">
+        <v>209300</v>
+      </c>
+      <c r="K54" s="3">
         <v>230400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>167200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>188500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>139600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>127100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2700</v>
       </c>
       <c r="F57" s="3">
         <v>2700</v>
       </c>
       <c r="G57" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,13 +2704,16 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2594,66 +2731,72 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="E60" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="3">
         <v>2800</v>
       </c>
       <c r="G60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
-        <v>2000</v>
-      </c>
       <c r="J60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2732,10 +2878,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>2800</v>
       </c>
       <c r="G66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
-        <v>1300</v>
-      </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56100</v>
+        <v>-58300</v>
       </c>
       <c r="E72" s="3">
-        <v>-53500</v>
+        <v>-55600</v>
       </c>
       <c r="F72" s="3">
-        <v>-51200</v>
+        <v>-53000</v>
       </c>
       <c r="G72" s="3">
-        <v>-49000</v>
+        <v>-50700</v>
       </c>
       <c r="H72" s="3">
-        <v>-47000</v>
+        <v>-48500</v>
       </c>
       <c r="I72" s="3">
-        <v>-44900</v>
+        <v>-46500</v>
       </c>
       <c r="J72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-29600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>160300</v>
+        <v>155500</v>
       </c>
       <c r="E76" s="3">
-        <v>161000</v>
+        <v>158900</v>
       </c>
       <c r="F76" s="3">
-        <v>161600</v>
+        <v>159500</v>
       </c>
       <c r="G76" s="3">
-        <v>164000</v>
+        <v>160100</v>
       </c>
       <c r="H76" s="3">
-        <v>206500</v>
+        <v>162500</v>
       </c>
       <c r="I76" s="3">
-        <v>209400</v>
+        <v>204600</v>
       </c>
       <c r="J76" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K76" s="3">
         <v>227800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>165300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>186000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>137900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>124500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,14 +3640,14 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,26 +3953,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3760,22 +3981,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3700</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
-        <v>23000</v>
-      </c>
       <c r="H94" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I94" s="3">
         <v>5900</v>
       </c>
-      <c r="I94" s="3">
-        <v>13600</v>
-      </c>
       <c r="J94" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K94" s="3">
         <v>8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>50900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-4600</v>
-      </c>
       <c r="G102" s="3">
-        <v>21700</v>
+        <v>-4500</v>
       </c>
       <c r="H102" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L102" s="3">
         <v>16300</v>
       </c>
-      <c r="J102" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>16300</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,43 +904,46 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,11 +1006,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -998,11 +1018,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-11100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1010,11 +1030,14 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,14 +1051,14 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>2800</v>
       </c>
       <c r="E17" s="3">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
-        <v>2100</v>
-      </c>
       <c r="H17" s="3">
-        <v>7200</v>
+        <v>2200</v>
       </c>
       <c r="I17" s="3">
-        <v>2500</v>
+        <v>7400</v>
       </c>
       <c r="J17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1800</v>
+        <v>-3000</v>
       </c>
       <c r="F18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-7200</v>
+        <v>-2200</v>
       </c>
       <c r="I18" s="3">
-        <v>-2500</v>
+        <v>-7400</v>
       </c>
       <c r="J18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1221,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
       <c r="H20" s="3">
-        <v>-1300</v>
+        <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>7500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2800</v>
       </c>
       <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-2800</v>
+        <v>-8800</v>
       </c>
       <c r="J23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2800</v>
       </c>
       <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I26" s="3">
-        <v>-2800</v>
+        <v>-8800</v>
       </c>
       <c r="J26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I27" s="3">
-        <v>-2800</v>
+        <v>-8700</v>
       </c>
       <c r="J27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
       <c r="H32" s="3">
-        <v>1300</v>
+        <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I33" s="3">
-        <v>-2800</v>
+        <v>-8700</v>
       </c>
       <c r="J33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I35" s="3">
-        <v>-2800</v>
+        <v>-8700</v>
       </c>
       <c r="J35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,63 +2053,67 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37900</v>
+        <v>32600</v>
       </c>
       <c r="E41" s="3">
-        <v>46300</v>
+        <v>39100</v>
       </c>
       <c r="F41" s="3">
-        <v>50100</v>
+        <v>47700</v>
       </c>
       <c r="G41" s="3">
-        <v>55500</v>
+        <v>51600</v>
       </c>
       <c r="H41" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="I41" s="3">
-        <v>77600</v>
+        <v>61900</v>
       </c>
       <c r="J41" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K41" s="3">
         <v>74000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>89800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
       </c>
       <c r="F42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G42" s="3">
         <v>200</v>
@@ -2035,42 +2125,45 @@
         <v>200</v>
       </c>
       <c r="J42" s="3">
+        <v>200</v>
+      </c>
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4100</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
@@ -2079,28 +2172,31 @@
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,211 +2239,226 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
-        <v>1200</v>
-      </c>
       <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
       </c>
       <c r="K45" s="3">
+        <v>600</v>
+      </c>
+      <c r="L45" s="3">
         <v>17100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>49400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>53600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>58400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>63200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K46" s="3">
+        <v>83100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>92500</v>
+      </c>
+      <c r="M46" s="3">
+        <v>69000</v>
+      </c>
+      <c r="N46" s="3">
+        <v>53100</v>
+      </c>
+      <c r="O46" s="3">
         <v>42900</v>
       </c>
-      <c r="E46" s="3">
-        <v>47900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>56600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>61300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>78800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>83100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>92500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>69000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>53100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>42900</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="E47" s="3">
-        <v>4700</v>
+        <v>5500</v>
       </c>
       <c r="F47" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="G47" s="3">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="H47" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="I47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K47" s="3">
         <v>4800</v>
       </c>
-      <c r="J47" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>111900</v>
+        <v>122500</v>
       </c>
       <c r="E48" s="3">
-        <v>109300</v>
+        <v>115500</v>
       </c>
       <c r="F48" s="3">
-        <v>106000</v>
+        <v>112600</v>
       </c>
       <c r="G48" s="3">
-        <v>102500</v>
+        <v>109200</v>
       </c>
       <c r="H48" s="3">
-        <v>99100</v>
+        <v>105600</v>
       </c>
       <c r="I48" s="3">
-        <v>122200</v>
+        <v>102100</v>
       </c>
       <c r="J48" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K48" s="3">
         <v>121500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>90300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>88000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>83700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
-      </c>
-      <c r="E49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160400</v>
+        <v>162600</v>
       </c>
       <c r="E54" s="3">
-        <v>161900</v>
+        <v>165200</v>
       </c>
       <c r="F54" s="3">
-        <v>162300</v>
+        <v>166800</v>
       </c>
       <c r="G54" s="3">
-        <v>162900</v>
+        <v>167200</v>
       </c>
       <c r="H54" s="3">
-        <v>163900</v>
+        <v>167900</v>
       </c>
       <c r="I54" s="3">
-        <v>205900</v>
+        <v>168900</v>
       </c>
       <c r="J54" s="3">
+        <v>212100</v>
+      </c>
+      <c r="K54" s="3">
         <v>209300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>230400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>167200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>188500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>139600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="F57" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="G57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,16 +2841,19 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2734,69 +2871,75 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="E60" s="3">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="F60" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="G60" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2881,10 +3027,13 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4900</v>
+        <v>6400</v>
       </c>
       <c r="E66" s="3">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="F66" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="G66" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H66" s="3">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="I66" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58300</v>
+        <v>-61600</v>
       </c>
       <c r="E72" s="3">
-        <v>-55600</v>
+        <v>-60100</v>
       </c>
       <c r="F72" s="3">
-        <v>-53000</v>
+        <v>-57300</v>
       </c>
       <c r="G72" s="3">
-        <v>-50700</v>
+        <v>-54700</v>
       </c>
       <c r="H72" s="3">
-        <v>-48500</v>
+        <v>-52200</v>
       </c>
       <c r="I72" s="3">
-        <v>-46500</v>
+        <v>-50000</v>
       </c>
       <c r="J72" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-44400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-40500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>155500</v>
+        <v>156100</v>
       </c>
       <c r="E76" s="3">
-        <v>158900</v>
+        <v>160200</v>
       </c>
       <c r="F76" s="3">
-        <v>159500</v>
+        <v>163700</v>
       </c>
       <c r="G76" s="3">
-        <v>160100</v>
+        <v>164400</v>
       </c>
       <c r="H76" s="3">
-        <v>162500</v>
+        <v>165000</v>
       </c>
       <c r="I76" s="3">
-        <v>204600</v>
+        <v>167400</v>
       </c>
       <c r="J76" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K76" s="3">
         <v>207500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>227800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>165300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>186000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>137900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>124500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I81" s="3">
-        <v>-2800</v>
+        <v>-8700</v>
       </c>
       <c r="J81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,14 +3842,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-2100</v>
       </c>
       <c r="E89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-2200</v>
       </c>
       <c r="H89" s="3">
-        <v>-5900</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-3600</v>
+        <v>-6100</v>
       </c>
       <c r="J89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5400</v>
+        <v>-2300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3600</v>
+        <v>-5500</v>
       </c>
       <c r="F94" s="3">
         <v>-3800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="H94" s="3">
-        <v>22700</v>
+        <v>-4200</v>
       </c>
       <c r="I94" s="3">
-        <v>5900</v>
+        <v>23400</v>
       </c>
       <c r="J94" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K94" s="3">
         <v>13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>50900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>-1300</v>
       </c>
       <c r="I101" s="3">
-        <v>-700</v>
+        <v>3400</v>
       </c>
       <c r="J101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8400</v>
+        <v>-6400</v>
       </c>
       <c r="E102" s="3">
-        <v>-3900</v>
+        <v>-8600</v>
       </c>
       <c r="F102" s="3">
-        <v>-5400</v>
+        <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>-4500</v>
+        <v>-5600</v>
       </c>
       <c r="H102" s="3">
-        <v>21500</v>
+        <v>-4700</v>
       </c>
       <c r="I102" s="3">
-        <v>3600</v>
+        <v>22100</v>
       </c>
       <c r="J102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K102" s="3">
         <v>16200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,46 +917,49 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>1100</v>
-      </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,11 +1028,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1021,11 +1040,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-11100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,10 +1076,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
-        <v>1600</v>
-      </c>
       <c r="H17" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>7400</v>
+        <v>2300</v>
       </c>
       <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H18" s="3">
-        <v>-2200</v>
+        <v>-1700</v>
       </c>
       <c r="I18" s="3">
-        <v>-7400</v>
+        <v>-2300</v>
       </c>
       <c r="J18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1400</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-3100</v>
+        <v>-2800</v>
       </c>
       <c r="F21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="Q21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>7500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1900</v>
+        <v>-3300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="H23" s="3">
         <v>-1800</v>
       </c>
       <c r="I23" s="3">
-        <v>-8800</v>
+        <v>-1900</v>
       </c>
       <c r="J23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1900</v>
+        <v>-3300</v>
       </c>
       <c r="G26" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="H26" s="3">
         <v>-1800</v>
       </c>
       <c r="I26" s="3">
-        <v>-8800</v>
+        <v>-1900</v>
       </c>
       <c r="J26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1700</v>
       </c>
       <c r="H27" s="3">
         <v>-1800</v>
       </c>
       <c r="I27" s="3">
-        <v>-8700</v>
+        <v>-1900</v>
       </c>
       <c r="J27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1854,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1400</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1700</v>
       </c>
       <c r="H33" s="3">
         <v>-1800</v>
       </c>
       <c r="I33" s="3">
-        <v>-8700</v>
+        <v>-1900</v>
       </c>
       <c r="J33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1700</v>
       </c>
       <c r="H35" s="3">
         <v>-1800</v>
       </c>
       <c r="I35" s="3">
-        <v>-8700</v>
+        <v>-1900</v>
       </c>
       <c r="J35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,60 +2139,64 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32600</v>
+        <v>23900</v>
       </c>
       <c r="E41" s="3">
-        <v>39100</v>
+        <v>33900</v>
       </c>
       <c r="F41" s="3">
-        <v>47700</v>
+        <v>40500</v>
       </c>
       <c r="G41" s="3">
-        <v>51600</v>
+        <v>49500</v>
       </c>
       <c r="H41" s="3">
-        <v>57200</v>
+        <v>53600</v>
       </c>
       <c r="I41" s="3">
-        <v>61900</v>
+        <v>59400</v>
       </c>
       <c r="J41" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K41" s="3">
         <v>80000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
@@ -2116,7 +2205,7 @@
         <v>300</v>
       </c>
       <c r="G42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H42" s="3">
         <v>200</v>
@@ -2128,45 +2217,48 @@
         <v>200</v>
       </c>
       <c r="K42" s="3">
+        <v>200</v>
+      </c>
+      <c r="L42" s="3">
         <v>8000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>4300</v>
-      </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>4400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -2175,28 +2267,31 @@
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,196 +2337,211 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
       </c>
       <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
         <v>17100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34000</v>
+        <v>25600</v>
       </c>
       <c r="E46" s="3">
-        <v>44200</v>
+        <v>35300</v>
       </c>
       <c r="F46" s="3">
-        <v>49400</v>
+        <v>45900</v>
       </c>
       <c r="G46" s="3">
-        <v>53600</v>
+        <v>51300</v>
       </c>
       <c r="H46" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="I46" s="3">
-        <v>63200</v>
+        <v>60600</v>
       </c>
       <c r="J46" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K46" s="3">
         <v>81200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>69000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="E47" s="3">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="F47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L47" s="3">
         <v>4800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="M47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N47" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4400</v>
       </c>
-      <c r="H47" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>12000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>7900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>122500</v>
+        <v>134700</v>
       </c>
       <c r="E48" s="3">
-        <v>115500</v>
+        <v>127200</v>
       </c>
       <c r="F48" s="3">
-        <v>112600</v>
+        <v>120000</v>
       </c>
       <c r="G48" s="3">
-        <v>109200</v>
+        <v>116900</v>
       </c>
       <c r="H48" s="3">
-        <v>105600</v>
+        <v>113400</v>
       </c>
       <c r="I48" s="3">
-        <v>102100</v>
+        <v>109700</v>
       </c>
       <c r="J48" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K48" s="3">
         <v>126000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>90300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>83700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2456,12 +2566,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162600</v>
+        <v>167500</v>
       </c>
       <c r="E54" s="3">
-        <v>165200</v>
+        <v>168800</v>
       </c>
       <c r="F54" s="3">
-        <v>166800</v>
+        <v>171600</v>
       </c>
       <c r="G54" s="3">
+        <v>173200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>173600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>174300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>212100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>209300</v>
+      </c>
+      <c r="M54" s="3">
+        <v>230400</v>
+      </c>
+      <c r="N54" s="3">
         <v>167200</v>
       </c>
-      <c r="H54" s="3">
-        <v>167900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>168900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>212100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>209300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>230400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>167200</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>188500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>139600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="F57" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="H57" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,10 +2989,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2874,72 +3010,78 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6600</v>
+        <v>5700</v>
       </c>
       <c r="E60" s="3">
-        <v>5200</v>
+        <v>6800</v>
       </c>
       <c r="F60" s="3">
-        <v>3100</v>
+        <v>5400</v>
       </c>
       <c r="G60" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="H60" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3030,10 +3175,13 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6400</v>
+        <v>5600</v>
       </c>
       <c r="E66" s="3">
-        <v>5100</v>
+        <v>6700</v>
       </c>
       <c r="F66" s="3">
-        <v>3100</v>
+        <v>5300</v>
       </c>
       <c r="G66" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="H66" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61600</v>
+        <v>-65600</v>
       </c>
       <c r="E72" s="3">
-        <v>-60100</v>
+        <v>-63900</v>
       </c>
       <c r="F72" s="3">
-        <v>-57300</v>
+        <v>-62400</v>
       </c>
       <c r="G72" s="3">
-        <v>-54700</v>
+        <v>-59500</v>
       </c>
       <c r="H72" s="3">
-        <v>-52200</v>
+        <v>-56700</v>
       </c>
       <c r="I72" s="3">
-        <v>-50000</v>
+        <v>-54200</v>
       </c>
       <c r="J72" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-47900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>156100</v>
+        <v>161900</v>
       </c>
       <c r="E76" s="3">
-        <v>160200</v>
+        <v>162100</v>
       </c>
       <c r="F76" s="3">
-        <v>163700</v>
+        <v>166300</v>
       </c>
       <c r="G76" s="3">
-        <v>164400</v>
+        <v>170000</v>
       </c>
       <c r="H76" s="3">
-        <v>165000</v>
+        <v>170600</v>
       </c>
       <c r="I76" s="3">
-        <v>167400</v>
+        <v>171300</v>
       </c>
       <c r="J76" s="3">
+        <v>173800</v>
+      </c>
+      <c r="K76" s="3">
         <v>210900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>227800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>165300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>186000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>137900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>124500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1700</v>
       </c>
       <c r="H81" s="3">
         <v>-1800</v>
       </c>
       <c r="I81" s="3">
-        <v>-8700</v>
+        <v>-1900</v>
       </c>
       <c r="J81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,10 +4043,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,46 +4334,49 @@
         <v>-2100</v>
       </c>
       <c r="E89" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="F89" s="3">
-        <v>-1300</v>
+        <v>-2500</v>
       </c>
       <c r="G89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-6100</v>
-      </c>
       <c r="J89" s="3">
+        <v>400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,31 +4394,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4208,22 +4428,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2300</v>
+        <v>-8500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5500</v>
+        <v>-2400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3800</v>
+        <v>-5700</v>
       </c>
       <c r="G94" s="3">
         <v>-3900</v>
       </c>
       <c r="H94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="O94" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>8100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>5700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="P94" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-4200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>700</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>900</v>
-      </c>
       <c r="I100" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
-        <v>200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6400</v>
+        <v>-9900</v>
       </c>
       <c r="E102" s="3">
-        <v>-8600</v>
+        <v>-6700</v>
       </c>
       <c r="F102" s="3">
-        <v>-4000</v>
+        <v>-8900</v>
       </c>
       <c r="G102" s="3">
-        <v>-5600</v>
+        <v>-4100</v>
       </c>
       <c r="H102" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="I102" s="3">
-        <v>22100</v>
+        <v>-4800</v>
       </c>
       <c r="J102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,11 +1051,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1043,11 +1063,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-11100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2900</v>
+        <v>-2500</v>
       </c>
       <c r="F18" s="3">
-        <v>-3200</v>
+        <v>-2800</v>
       </c>
       <c r="G18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2300</v>
-      </c>
       <c r="J18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,46 +1291,49 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
       </c>
       <c r="L20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,96 +1927,102 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
       </c>
       <c r="L32" s="3">
+        <v>300</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,66 +2226,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23900</v>
+        <v>14300</v>
       </c>
       <c r="E41" s="3">
-        <v>33900</v>
+        <v>23400</v>
       </c>
       <c r="F41" s="3">
-        <v>40500</v>
+        <v>33100</v>
       </c>
       <c r="G41" s="3">
-        <v>49500</v>
+        <v>39600</v>
       </c>
       <c r="H41" s="3">
-        <v>53600</v>
+        <v>48300</v>
       </c>
       <c r="I41" s="3">
-        <v>59400</v>
+        <v>52300</v>
       </c>
       <c r="J41" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K41" s="3">
         <v>64200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>300</v>
@@ -2208,7 +2298,7 @@
         <v>300</v>
       </c>
       <c r="H42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I42" s="3">
         <v>200</v>
@@ -2220,78 +2310,84 @@
         <v>200</v>
       </c>
       <c r="L42" s="3">
+        <v>200</v>
+      </c>
+      <c r="M42" s="3">
         <v>8000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>4400</v>
-      </c>
       <c r="G43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
       <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,208 +2436,223 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
         <v>17100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25600</v>
+        <v>16200</v>
       </c>
       <c r="E46" s="3">
-        <v>35300</v>
+        <v>25000</v>
       </c>
       <c r="F46" s="3">
-        <v>45900</v>
+        <v>34500</v>
       </c>
       <c r="G46" s="3">
-        <v>51300</v>
+        <v>44800</v>
       </c>
       <c r="H46" s="3">
-        <v>55700</v>
+        <v>50100</v>
       </c>
       <c r="I46" s="3">
-        <v>60600</v>
+        <v>54300</v>
       </c>
       <c r="J46" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K46" s="3">
         <v>65600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>81200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>92500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>69000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="E47" s="3">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="F47" s="3">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="H47" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="I47" s="3">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="J47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>134700</v>
+        <v>137900</v>
       </c>
       <c r="E48" s="3">
-        <v>127200</v>
+        <v>131500</v>
       </c>
       <c r="F48" s="3">
-        <v>120000</v>
+        <v>124200</v>
       </c>
       <c r="G48" s="3">
-        <v>116900</v>
+        <v>117100</v>
       </c>
       <c r="H48" s="3">
-        <v>113400</v>
+        <v>114100</v>
       </c>
       <c r="I48" s="3">
-        <v>109700</v>
+        <v>110700</v>
       </c>
       <c r="J48" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K48" s="3">
         <v>106000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>90300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>83700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2569,12 +2680,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>163500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>164800</v>
+      </c>
+      <c r="G54" s="3">
         <v>167500</v>
       </c>
-      <c r="E54" s="3">
-        <v>168800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>171600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>173200</v>
-      </c>
       <c r="H54" s="3">
-        <v>173600</v>
+        <v>169100</v>
       </c>
       <c r="I54" s="3">
-        <v>174300</v>
+        <v>169500</v>
       </c>
       <c r="J54" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K54" s="3">
         <v>175400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>212100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>230400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>167200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>188500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>139600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>127100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="E57" s="3">
-        <v>6700</v>
+        <v>5400</v>
       </c>
       <c r="F57" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="G57" s="3">
-        <v>3200</v>
+        <v>4700</v>
       </c>
       <c r="H57" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,10 +3129,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3013,75 +3150,81 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5700</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
-        <v>6800</v>
+        <v>5600</v>
       </c>
       <c r="F60" s="3">
-        <v>5400</v>
+        <v>6600</v>
       </c>
       <c r="G60" s="3">
-        <v>3300</v>
+        <v>5200</v>
       </c>
       <c r="H60" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="I60" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3178,10 +3324,13 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="E66" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="F66" s="3">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="G66" s="3">
-        <v>3200</v>
+        <v>5100</v>
       </c>
       <c r="H66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I66" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-65600</v>
+        <v>-65700</v>
       </c>
       <c r="E72" s="3">
-        <v>-63900</v>
+        <v>-64100</v>
       </c>
       <c r="F72" s="3">
         <v>-62400</v>
       </c>
       <c r="G72" s="3">
-        <v>-59500</v>
+        <v>-60900</v>
       </c>
       <c r="H72" s="3">
-        <v>-56700</v>
+        <v>-58100</v>
       </c>
       <c r="I72" s="3">
-        <v>-54200</v>
+        <v>-55400</v>
       </c>
       <c r="J72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-51900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>161900</v>
+        <v>157100</v>
       </c>
       <c r="E76" s="3">
-        <v>162100</v>
+        <v>158100</v>
       </c>
       <c r="F76" s="3">
-        <v>166300</v>
+        <v>158300</v>
       </c>
       <c r="G76" s="3">
-        <v>170000</v>
+        <v>162400</v>
       </c>
       <c r="H76" s="3">
-        <v>170600</v>
+        <v>165900</v>
       </c>
       <c r="I76" s="3">
-        <v>171300</v>
+        <v>166600</v>
       </c>
       <c r="J76" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K76" s="3">
         <v>173800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>210900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>207500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>227800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>165300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>186000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>137900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>124500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,7 +4245,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8500</v>
+        <v>-7700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2400</v>
+        <v>-8300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5700</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3900</v>
+        <v>-5600</v>
       </c>
       <c r="H94" s="3">
-        <v>-4100</v>
+        <v>-3800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="J94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,145 +5070,154 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>50900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-1400</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>-1300</v>
       </c>
       <c r="H101" s="3">
+        <v>600</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9900</v>
+        <v>-9000</v>
       </c>
       <c r="E102" s="3">
-        <v>-6700</v>
+        <v>-9700</v>
       </c>
       <c r="F102" s="3">
-        <v>-8900</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>-4100</v>
+        <v>-8700</v>
       </c>
       <c r="H102" s="3">
-        <v>-5800</v>
+        <v>-4000</v>
       </c>
       <c r="I102" s="3">
-        <v>-4800</v>
+        <v>-5600</v>
       </c>
       <c r="J102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,7 +945,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -940,43 +954,46 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1066,23 +1086,26 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>-11100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1128,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,46 +1328,49 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-300</v>
       </c>
       <c r="L20" s="3">
         <v>-300</v>
       </c>
       <c r="M20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1700</v>
-      </c>
       <c r="J27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,99 +2000,105 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>300</v>
       </c>
       <c r="L32" s="3">
         <v>300</v>
       </c>
       <c r="M32" s="3">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1700</v>
-      </c>
       <c r="J33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1700</v>
-      </c>
       <c r="J35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14300</v>
+        <v>8500</v>
       </c>
       <c r="E41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48300</v>
       </c>
-      <c r="I41" s="3">
-        <v>52300</v>
-      </c>
       <c r="J41" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K41" s="3">
         <v>58000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>89800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2289,10 +2379,10 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
+        <v>300</v>
+      </c>
+      <c r="F42" s="3">
         <v>200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>300</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
@@ -2301,7 +2391,7 @@
         <v>300</v>
       </c>
       <c r="I42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -2313,81 +2403,87 @@
         <v>200</v>
       </c>
       <c r="M42" s="3">
+        <v>200</v>
+      </c>
+      <c r="N42" s="3">
         <v>8000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,220 +2535,235 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>17100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E46" s="3">
         <v>16200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50100</v>
       </c>
-      <c r="I46" s="3">
-        <v>54300</v>
-      </c>
       <c r="J46" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K46" s="3">
         <v>59200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>81200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>92500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>69000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E47" s="3">
         <v>7600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E48" s="3">
         <v>137900</v>
       </c>
-      <c r="E48" s="3">
-        <v>131500</v>
-      </c>
       <c r="F48" s="3">
-        <v>124200</v>
+        <v>131600</v>
       </c>
       <c r="G48" s="3">
-        <v>117100</v>
+        <v>124300</v>
       </c>
       <c r="H48" s="3">
-        <v>114100</v>
+        <v>117200</v>
       </c>
       <c r="I48" s="3">
-        <v>110700</v>
+        <v>114200</v>
       </c>
       <c r="J48" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K48" s="3">
         <v>107100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>106000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>121500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>90300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>88000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2683,11 +2794,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161700</v>
+        <v>159800</v>
       </c>
       <c r="E54" s="3">
-        <v>163500</v>
+        <v>161800</v>
       </c>
       <c r="F54" s="3">
-        <v>164800</v>
+        <v>163600</v>
       </c>
       <c r="G54" s="3">
-        <v>167500</v>
+        <v>164900</v>
       </c>
       <c r="H54" s="3">
-        <v>169100</v>
+        <v>167600</v>
       </c>
       <c r="I54" s="3">
-        <v>169500</v>
+        <v>169200</v>
       </c>
       <c r="J54" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K54" s="3">
         <v>170200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>212100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>230400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>167200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>188500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>139600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>127100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
-        <v>5400</v>
-      </c>
       <c r="F57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2800</v>
       </c>
       <c r="J57" s="3">
         <v>2800</v>
       </c>
       <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,10 +3269,10 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3153,78 +3290,84 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
-        <v>6600</v>
-      </c>
       <c r="G60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2900</v>
       </c>
       <c r="J60" s="3">
         <v>2900</v>
       </c>
       <c r="K60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3327,10 +3473,13 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2900</v>
       </c>
       <c r="J66" s="3">
         <v>2900</v>
       </c>
       <c r="K66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62400</v>
       </c>
-      <c r="G72" s="3">
-        <v>-60900</v>
-      </c>
       <c r="H72" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-58100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-40500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>157100</v>
+        <v>156800</v>
       </c>
       <c r="E76" s="3">
+        <v>157200</v>
+      </c>
+      <c r="F76" s="3">
         <v>158100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158300</v>
       </c>
-      <c r="G76" s="3">
-        <v>162400</v>
-      </c>
       <c r="H76" s="3">
-        <v>165900</v>
+        <v>162500</v>
       </c>
       <c r="I76" s="3">
-        <v>166600</v>
+        <v>166000</v>
       </c>
       <c r="J76" s="3">
+        <v>166700</v>
+      </c>
+      <c r="K76" s="3">
         <v>167300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>173800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>210900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>207500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>227800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>165300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>186000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>137900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>124500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1700</v>
-      </c>
       <c r="J81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2100</v>
       </c>
       <c r="F89" s="3">
         <v>-2100</v>
       </c>
       <c r="G89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2600</v>
       </c>
       <c r="I91" s="3">
         <v>-2600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4655,22 +4876,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>50900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,101 +5372,107 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NUAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>NUAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,7 +962,7 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -957,43 +971,46 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,40 +1065,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1089,11 +1109,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-11100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1101,11 +1121,14 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1154,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1215,58 @@
         <v>2500</v>
       </c>
       <c r="E17" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="F17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
-        <v>2800</v>
-      </c>
       <c r="H17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3000</v>
+        <v>-2600</v>
       </c>
       <c r="F18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,46 +1365,49 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-300</v>
       </c>
       <c r="M20" s="3">
         <v>-300</v>
       </c>
       <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-3000</v>
+        <v>-2500</v>
       </c>
       <c r="F21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G23" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2003,102 +2073,108 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>300</v>
       </c>
       <c r="M32" s="3">
         <v>300</v>
       </c>
       <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8500</v>
+        <v>38500</v>
       </c>
       <c r="E41" s="3">
-        <v>14400</v>
+        <v>8700</v>
       </c>
       <c r="F41" s="3">
-        <v>23400</v>
+        <v>14600</v>
       </c>
       <c r="G41" s="3">
-        <v>33100</v>
+        <v>23800</v>
       </c>
       <c r="H41" s="3">
-        <v>39600</v>
+        <v>33700</v>
       </c>
       <c r="I41" s="3">
-        <v>48300</v>
+        <v>40300</v>
       </c>
       <c r="J41" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K41" s="3">
         <v>52400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>89800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>33600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2382,10 +2472,10 @@
         <v>300</v>
       </c>
       <c r="F42" s="3">
+        <v>300</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>300</v>
       </c>
       <c r="H42" s="3">
         <v>300</v>
@@ -2394,7 +2484,7 @@
         <v>300</v>
       </c>
       <c r="J42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
@@ -2406,84 +2496,90 @@
         <v>200</v>
       </c>
       <c r="N42" s="3">
+        <v>200</v>
+      </c>
+      <c r="O42" s="3">
         <v>8000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>4300</v>
-      </c>
       <c r="I43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>500</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>400</v>
       </c>
       <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,223 +2646,235 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
       </c>
       <c r="N45" s="3">
         <v>600</v>
       </c>
       <c r="O45" s="3">
+        <v>600</v>
+      </c>
+      <c r="P45" s="3">
         <v>17100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10200</v>
+        <v>40200</v>
       </c>
       <c r="E46" s="3">
-        <v>16200</v>
+        <v>10400</v>
       </c>
       <c r="F46" s="3">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="G46" s="3">
-        <v>34500</v>
+        <v>25500</v>
       </c>
       <c r="H46" s="3">
-        <v>44800</v>
+        <v>35100</v>
       </c>
       <c r="I46" s="3">
-        <v>50100</v>
+        <v>45700</v>
       </c>
       <c r="J46" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K46" s="3">
         <v>54400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>81200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>69000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>7900</v>
       </c>
-      <c r="E47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>4800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>12000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>7900</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>141800</v>
+        <v>146300</v>
       </c>
       <c r="E48" s="3">
-        <v>137900</v>
+        <v>144400</v>
       </c>
       <c r="F48" s="3">
-        <v>131600</v>
+        <v>140500</v>
       </c>
       <c r="G48" s="3">
-        <v>124300</v>
+        <v>134000</v>
       </c>
       <c r="H48" s="3">
-        <v>117200</v>
+        <v>126500</v>
       </c>
       <c r="I48" s="3">
-        <v>114200</v>
+        <v>119300</v>
       </c>
       <c r="J48" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K48" s="3">
         <v>110800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>106000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>126000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>121500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>90300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>125400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>83700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>78100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2797,12 +2908,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159800</v>
+        <v>194600</v>
       </c>
       <c r="E54" s="3">
-        <v>161800</v>
+        <v>162700</v>
       </c>
       <c r="F54" s="3">
-        <v>163600</v>
+        <v>164800</v>
       </c>
       <c r="G54" s="3">
-        <v>164900</v>
+        <v>166600</v>
       </c>
       <c r="H54" s="3">
-        <v>167600</v>
+        <v>167900</v>
       </c>
       <c r="I54" s="3">
-        <v>169200</v>
+        <v>170700</v>
       </c>
       <c r="J54" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K54" s="3">
         <v>169600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>170200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>175400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>212100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>209300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>230400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>167200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>188500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>139600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>127100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>124200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
-        <v>4600</v>
-      </c>
       <c r="F57" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="G57" s="3">
-        <v>6600</v>
+        <v>5600</v>
       </c>
       <c r="H57" s="3">
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="I57" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
       </c>
       <c r="L57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,13 +3388,16 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3272,10 +3409,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3293,81 +3430,87 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
-        <v>4700</v>
-      </c>
       <c r="F60" s="3">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="G60" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="H60" s="3">
-        <v>5200</v>
+        <v>6800</v>
       </c>
       <c r="I60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J60" s="3">
         <v>3200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2900</v>
       </c>
       <c r="K60" s="3">
         <v>2900</v>
       </c>
       <c r="L60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3476,10 +3622,13 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
-        <v>4600</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="G66" s="3">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="H66" s="3">
-        <v>5100</v>
+        <v>6600</v>
       </c>
       <c r="I66" s="3">
-        <v>3100</v>
+        <v>5200</v>
       </c>
       <c r="J66" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>2900</v>
       </c>
       <c r="L66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-67500</v>
+        <v>-70600</v>
       </c>
       <c r="E72" s="3">
-        <v>-65700</v>
+        <v>-68800</v>
       </c>
       <c r="F72" s="3">
-        <v>-64100</v>
+        <v>-66900</v>
       </c>
       <c r="G72" s="3">
-        <v>-62400</v>
+        <v>-65300</v>
       </c>
       <c r="H72" s="3">
-        <v>-61000</v>
+        <v>-63600</v>
       </c>
       <c r="I72" s="3">
-        <v>-58100</v>
+        <v>-62100</v>
       </c>
       <c r="J72" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-55400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>156800</v>
+        <v>191800</v>
       </c>
       <c r="E76" s="3">
-        <v>157200</v>
+        <v>159700</v>
       </c>
       <c r="F76" s="3">
-        <v>158100</v>
+        <v>160100</v>
       </c>
       <c r="G76" s="3">
-        <v>158300</v>
+        <v>161000</v>
       </c>
       <c r="H76" s="3">
-        <v>162500</v>
+        <v>161300</v>
       </c>
       <c r="I76" s="3">
-        <v>166000</v>
+        <v>165400</v>
       </c>
       <c r="J76" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K76" s="3">
         <v>166700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>167300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>173800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>210900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>207500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>227800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>165300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>186000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>137900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>124500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2100</v>
       </c>
       <c r="G89" s="3">
         <v>-2100</v>
       </c>
       <c r="H89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,41 +5057,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2600</v>
       </c>
       <c r="J91" s="3">
         <v>-2600</v>
       </c>
       <c r="K91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4879,22 +5100,25 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4700</v>
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
-        <v>-7700</v>
+        <v>-4800</v>
       </c>
       <c r="F94" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2300</v>
+        <v>-8500</v>
       </c>
       <c r="H94" s="3">
-        <v>-5600</v>
+        <v>-2400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3800</v>
+        <v>-5700</v>
       </c>
       <c r="J94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>13400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5375,104 +5624,110 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5800</v>
+        <v>29900</v>
       </c>
       <c r="E102" s="3">
-        <v>-9000</v>
+        <v>-6000</v>
       </c>
       <c r="F102" s="3">
-        <v>-9700</v>
+        <v>-9200</v>
       </c>
       <c r="G102" s="3">
-        <v>-6500</v>
+        <v>-9900</v>
       </c>
       <c r="H102" s="3">
-        <v>-8700</v>
+        <v>-6600</v>
       </c>
       <c r="I102" s="3">
-        <v>-4000</v>
+        <v>-8900</v>
       </c>
       <c r="J102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16500</v>
       </c>
     </row>
